--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABEACE02ECA50B5A4A705ADE589D" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2AABBDD9-56C5-4105-B90C-5793A819ED29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70C762-6869-4DB5-849F-A98CE9FE46B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -32,13 +32,40 @@
   </si>
   <si>
     <t>Martinus, a Santo Brunone</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/126249953</t>
+  </si>
+  <si>
+    <t>Abel, Friedrich Gottfried</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29786980</t>
+  </si>
+  <si>
+    <t>Abril, Pedro Simón</t>
+  </si>
+  <si>
+    <t>Ackermann, Johann Christian Gottlieb</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56645934</t>
+  </si>
+  <si>
+    <t>Acker, I. Henr.</t>
+  </si>
+  <si>
+    <t>Adler, Jacobus Georgius Christianus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/41938180</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +74,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13.2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13.2"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -73,9 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -358,19 +395,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.54296875" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,12 +415,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70C762-6869-4DB5-849F-A98CE9FE46B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{96A76ECC-A857-402F-BB65-7BB508A11538}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -59,13 +59,136 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/41938180</t>
+  </si>
+  <si>
+    <t>Augustin, Antonio</t>
+  </si>
+  <si>
+    <t>Ahrens, E. A. J.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/266808496</t>
+  </si>
+  <si>
+    <t>Alanus, Henricus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52043632</t>
+  </si>
+  <si>
+    <t>Albers, Johann Friedrich Christian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44647142</t>
+  </si>
+  <si>
+    <t>Alberti, Eduard Christian Scharlau</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/62296052</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/30480374</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Allard, Joseph Felix</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/232488122</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/212020527</t>
+  </si>
+  <si>
+    <t>Allen, Alexander</t>
+  </si>
+  <si>
+    <t>Allen, Henry Ellis</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/244639062</t>
+  </si>
+  <si>
+    <t>Almeida, Pedro de</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27411759</t>
+  </si>
+  <si>
+    <t>Orsini, Fulvio</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/22239490</t>
+  </si>
+  <si>
+    <t>Dacier, Andre</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27063045</t>
+  </si>
+  <si>
+    <t>Ritter, Franz</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7736173</t>
+  </si>
+  <si>
+    <t>Alschefski, C.F.S.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20428054</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/298306542</t>
+  </si>
+  <si>
+    <t>Altenburg, Friedrich Wilhelm</t>
+  </si>
+  <si>
+    <t>Alter, Franz Carl</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56620125</t>
+  </si>
+  <si>
+    <t>Kühnöl, Christian Gottlieb</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/76606960</t>
+  </si>
+  <si>
+    <t>Heguin de Guerle, Charles</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/82872058</t>
+  </si>
+  <si>
+    <t>Heyne, Christian Gottlob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/14819364</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19701318</t>
+  </si>
+  <si>
+    <t>Le Clerc, Joseph-Victor</t>
+  </si>
+  <si>
+    <t>Bothe, Freidrich Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61664872</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,17 +197,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="13.2"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.2"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,19 +240,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,73 +538,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.54296875" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+    <row r="26" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B27">
+    <sortCondition ref="A2:A27"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{25A1689E-F5A6-4D7E-9244-1A0ED89A8F9D}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{3625D120-5336-46D5-AE4B-E63BEB4D0114}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="57" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{96A76ECC-A857-402F-BB65-7BB508A11538}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EA6F14D2-40F0-4671-8C70-167B76C45F6D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -182,6 +182,54 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/61664872</t>
+  </si>
+  <si>
+    <t>Ambrogi, Antonio</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19283679</t>
+  </si>
+  <si>
+    <t>Hofmann, Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/22498182</t>
+  </si>
+  <si>
+    <t>Anthon, Charles</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52044369</t>
+  </si>
+  <si>
+    <t>Doring, F. W.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32143036</t>
+  </si>
+  <si>
+    <t>Ernesti, Johann August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/15000894</t>
+  </si>
+  <si>
+    <t>Holden, Hubert Ashton</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/50807082</t>
+  </si>
+  <si>
+    <t>Metcalfe, Frederick</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49990139</t>
+  </si>
+  <si>
+    <t>Wheeler, George Bomford</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/73767746</t>
   </si>
 </sst>
 </file>
@@ -538,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -767,6 +815,70 @@
         <v>37</v>
       </c>
     </row>
+    <row r="28" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B27">
     <sortCondition ref="A2:A27"/>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="74" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EA6F14D2-40F0-4671-8C70-167B76C45F6D}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C0E4F629-59E4-4534-940F-76F4361B851C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -230,13 +230,229 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/73767746</t>
+  </si>
+  <si>
+    <t>Anton, Konrad Gottlob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49248089</t>
+  </si>
+  <si>
+    <t>Anton, Karl</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32745398</t>
+  </si>
+  <si>
+    <t>Apitz, Johann</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/301875396</t>
+  </si>
+  <si>
+    <t>Arevalo, Faustino</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24743965</t>
+  </si>
+  <si>
+    <t>Arcangeli, Giuseppe</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/244147501</t>
+  </si>
+  <si>
+    <t>Arndt, Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44384551</t>
+  </si>
+  <si>
+    <t>Arnold, August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/40164467</t>
+  </si>
+  <si>
+    <t>Wopkens, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89556190</t>
+  </si>
+  <si>
+    <t>Arntzenius, Otto</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/95308284</t>
+  </si>
+  <si>
+    <t>Arnulf, Francesco</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/5327000</t>
+  </si>
+  <si>
+    <t>Artaud, N.L.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/73849207</t>
+  </si>
+  <si>
+    <t>Artopoeus, Samuel</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/77257972</t>
+  </si>
+  <si>
+    <t>Ast, Friederich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7449215</t>
+  </si>
+  <si>
+    <t>Aubertin, Charles</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12346098</t>
+  </si>
+  <si>
+    <t>Auger, L.S.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/66573842</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/14760632</t>
+  </si>
+  <si>
+    <t>Avellinius, F.M.</t>
+  </si>
+  <si>
+    <t>Axtius, C.A.M.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/74204644</t>
+  </si>
+  <si>
+    <t>Bocking, Eduard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49307806</t>
+  </si>
+  <si>
+    <t>Botticher, Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/281139437</t>
+  </si>
+  <si>
+    <t>Smith, William</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88890045</t>
+  </si>
+  <si>
+    <t>Buchling, Johann David</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45303926</t>
+  </si>
+  <si>
+    <t>Buchner, Guilelmus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/305836952</t>
+  </si>
+  <si>
+    <t>Babelonius, Augustin</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7739151</t>
+  </si>
+  <si>
+    <t>Bach, Ernst Carl Christian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20018359</t>
+  </si>
+  <si>
+    <t>Baden, Jacob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/30479739</t>
+  </si>
+  <si>
+    <t>Baden, Torkel</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42774497</t>
+  </si>
+  <si>
+    <t>Baden, Torkill</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/284765337</t>
+  </si>
+  <si>
+    <t>Bailey, N.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34497937</t>
+  </si>
+  <si>
+    <t>Danet, Peter</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44339959</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69044212</t>
+  </si>
+  <si>
+    <t>Minellius, Johannes</t>
+  </si>
+  <si>
+    <t>Baiter, Johann Georg</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45044320</t>
+  </si>
+  <si>
+    <t>Kayser, C.L.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69018807</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/62344858</t>
+  </si>
+  <si>
+    <t>Orelli, Johann Caspar</t>
+  </si>
+  <si>
+    <t>Ballerini, Pietro</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/41986028</t>
+  </si>
+  <si>
+    <t>Baluzi, Stephan</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59178466</t>
+  </si>
+  <si>
+    <t>Bandieri, Alessandro</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/2806841</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +486,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,6 +527,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -586,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -735,159 +960,449 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
+      <c r="A23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="50" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B27">
-    <sortCondition ref="A2:A27"/>
+  <sortState ref="A2:B50">
+    <sortCondition ref="A28"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" xr:uid="{25A1689E-F5A6-4D7E-9244-1A0ED89A8F9D}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{3625D120-5336-46D5-AE4B-E63BEB4D0114}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{4C6FD6DD-1109-40A5-9AEB-9AD2973FEFFF}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{48E39569-CD60-4443-BBD7-D862D41D02BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="154" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C0E4F629-59E4-4534-940F-76F4361B851C}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{579CE532-8B41-43C2-AADF-78DED544D687}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -446,6 +446,210 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/2806841</t>
+  </si>
+  <si>
+    <t>Oliver, Pedro Juan</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34607051</t>
+  </si>
+  <si>
+    <t>Gronovius, Abraham</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61677396</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12384559</t>
+  </si>
+  <si>
+    <t>Barbier, Jules</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/86596074</t>
+  </si>
+  <si>
+    <t>Bardili, Guilielmus Henricus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49966518</t>
+  </si>
+  <si>
+    <t>Staveren, Augustinus van</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89208065</t>
+  </si>
+  <si>
+    <t>Bleyswick, Francois van</t>
+  </si>
+  <si>
+    <t>Baret, Eugene</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/36964332</t>
+  </si>
+  <si>
+    <t>Barker, Edmund Henry</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39716436</t>
+  </si>
+  <si>
+    <t>Baron, Augustus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7193500</t>
+  </si>
+  <si>
+    <t>Barreau, H.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7691155044886272520003</t>
+  </si>
+  <si>
+    <t>Peronne, Joseph-Max</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61854282</t>
+  </si>
+  <si>
+    <t>Ecalle, Pierre Felix</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56646541</t>
+  </si>
+  <si>
+    <t>Charpentier, Jean-Pierre</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/22274769</t>
+  </si>
+  <si>
+    <t>Vincent, C.J.B.J.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/121850838</t>
+  </si>
+  <si>
+    <t>Barth, Friedrich Gottlieb</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/908603</t>
+  </si>
+  <si>
+    <t>Vinet, Elie</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27100990</t>
+  </si>
+  <si>
+    <t>Accorso, Mariangelo</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42899404</t>
+  </si>
+  <si>
+    <t>Rivinus, Andreas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/40246385</t>
+  </si>
+  <si>
+    <t>Schrijver, Pieter</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24732263</t>
+  </si>
+  <si>
+    <t>Baumstark, Anton</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59164719</t>
+  </si>
+  <si>
+    <t>Baune, Jaques de la</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39454999</t>
+  </si>
+  <si>
+    <t>Baxter, William</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/5266955</t>
+  </si>
+  <si>
+    <t>Becher, Christian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42743606</t>
+  </si>
+  <si>
+    <t>Becher, Friedrich Liebgott</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49657969</t>
+  </si>
+  <si>
+    <t>Beck, Charles</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37658375</t>
+  </si>
+  <si>
+    <t>Beck, Christian Daniel</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57357633</t>
+  </si>
+  <si>
+    <t>Becker, Gustavus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42580693</t>
+  </si>
+  <si>
+    <t>Becker, Ulrich Justus Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/25344923</t>
+  </si>
+  <si>
+    <t>Becker, William Adolf</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88728074</t>
+  </si>
+  <si>
+    <t>Beesly, A.H.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29898952</t>
+  </si>
+  <si>
+    <t>Beger, Laurentius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56907766</t>
+  </si>
+  <si>
+    <t>Beier, Karl</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/444806</t>
+  </si>
+  <si>
+    <t>Benecke, Karl</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/263942005</t>
+  </si>
+  <si>
+    <t>Benedict, Traugott Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12739365</t>
   </si>
 </sst>
 </file>
@@ -811,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1392,6 +1596,278 @@
         <v>141</v>
       </c>
     </row>
+    <row r="72" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B50">
     <sortCondition ref="A28"/>
@@ -1401,8 +1877,9 @@
     <hyperlink ref="B15" r:id="rId2" xr:uid="{3625D120-5336-46D5-AE4B-E63BEB4D0114}"/>
     <hyperlink ref="B21" r:id="rId3" xr:uid="{4C6FD6DD-1109-40A5-9AEB-9AD2973FEFFF}"/>
     <hyperlink ref="B29" r:id="rId4" xr:uid="{48E39569-CD60-4443-BBD7-D862D41D02BD}"/>
+    <hyperlink ref="B104" r:id="rId5" xr:uid="{2BDBBDF5-F4AC-45CC-9608-2522D53484B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="225" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{579CE532-8B41-43C2-AADF-78DED544D687}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FEB5E7-707B-422B-8E52-56534826335C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -650,6 +650,18 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/12739365</t>
+  </si>
+  <si>
+    <t>Oberthur, Franz</t>
+  </si>
+  <si>
+    <t>Mai, Angelo</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/79150290</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/100180720</t>
   </si>
 </sst>
 </file>
@@ -1015,20 +1027,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="44.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1132,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1252,7 +1264,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -1260,7 +1272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1276,7 +1288,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1300,7 +1312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -1308,7 +1320,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1340,7 +1352,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -1380,7 +1392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -1396,7 +1408,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -1428,7 +1440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -1436,7 +1448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1484,7 +1496,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1500,7 +1512,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1540,7 +1552,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1564,7 +1576,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1588,7 +1600,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1596,7 +1608,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -1604,7 +1616,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -1732,7 +1744,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -1764,7 +1776,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -1772,7 +1784,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -1780,7 +1792,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -1812,7 +1824,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -1820,7 +1832,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -1860,12 +1872,28 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="225" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{579CE532-8B41-43C2-AADF-78DED544D687}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E49494FC-A26C-4F89-A7D3-C402E5A426BE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>Name</t>
   </si>
@@ -650,6 +650,126 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/12739365</t>
+  </si>
+  <si>
+    <t>Benedict, Anton</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42262318</t>
+  </si>
+  <si>
+    <t>Bengel, Johann Albrecht</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44309321</t>
+  </si>
+  <si>
+    <t>Bentivoglio, Francesco</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20423730</t>
+  </si>
+  <si>
+    <t>Kidd, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/31985026</t>
+  </si>
+  <si>
+    <t>Wakefield, Gilbert</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/8157129</t>
+  </si>
+  <si>
+    <t>Bentley, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19533555</t>
+  </si>
+  <si>
+    <t>Jurin, Jacob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29688630</t>
+  </si>
+  <si>
+    <t>Berger de Xivrey, Jules</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49302956</t>
+  </si>
+  <si>
+    <t>Bergeron, Pierre</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39581350</t>
+  </si>
+  <si>
+    <t>Bernard, Edward Russell</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/51272784</t>
+  </si>
+  <si>
+    <t>Prichard, Constantine E</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/43882652</t>
+  </si>
+  <si>
+    <t>Patin, Charles</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44395875</t>
+  </si>
+  <si>
+    <t>Torrentius, Laevinus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89526046</t>
+  </si>
+  <si>
+    <t>Glareanus, Henricus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/73950690</t>
+  </si>
+  <si>
+    <t>Burnouf, J.L.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/31993809</t>
+  </si>
+  <si>
+    <t>Bernstein, George Henry</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/93205398</t>
+  </si>
+  <si>
+    <t>Bertrand, J.E.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88715513</t>
+  </si>
+  <si>
+    <t>Betolaud, Victor</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/66708846</t>
+  </si>
+  <si>
+    <t>Bianchi, Orazio</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/202320172</t>
+  </si>
+  <si>
+    <t>Bentivolgio, Cornelio</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/195253503</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1866,6 +1986,166 @@
       </c>
       <c r="B105" s="3" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="265" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E49494FC-A26C-4F89-A7D3-C402E5A426BE}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FBDEBE74-AF80-45B4-95EA-24ABA646FF96}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="277">
   <si>
     <t>Name</t>
   </si>
@@ -770,6 +770,87 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/195253503</t>
+  </si>
+  <si>
+    <t>Bielowski, Augustus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/47506798</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39659369</t>
+  </si>
+  <si>
+    <t>Bindi, Enrico</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12695044</t>
+  </si>
+  <si>
+    <t>Bjorn, C.A.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44650768</t>
+  </si>
+  <si>
+    <t>Billecocq, J.B.L.J.</t>
+  </si>
+  <si>
+    <t>Blumm, Ferdinand</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/5778521</t>
+  </si>
+  <si>
+    <t>Bloch, Soren Niclas Johan</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/276944159</t>
+  </si>
+  <si>
+    <t>Blume, Friedrich</t>
+  </si>
+  <si>
+    <t>Boethius, Petrus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/25481143</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37096616</t>
+  </si>
+  <si>
+    <t>Bockemuller, Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/299814613</t>
+  </si>
+  <si>
+    <t>Bode, George Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27815938</t>
+  </si>
+  <si>
+    <t>Boeckel, Dagobert Ernst Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/209563766</t>
+  </si>
+  <si>
+    <t>Boecler, Johann Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/25347959</t>
+  </si>
+  <si>
+    <t>Boehmert, C.F.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12658488</t>
+  </si>
+  <si>
+    <t>Boetticher, Guilelmus</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2146,6 +2227,118 @@
       </c>
       <c r="B125" s="3" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="295" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FBDEBE74-AF80-45B4-95EA-24ABA646FF96}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9B76F2D1-F265-4771-B9A9-FA40DD94C6E6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="307">
   <si>
     <t>Name</t>
   </si>
@@ -851,6 +851,96 @@
   </si>
   <si>
     <t>Boetticher, Guilelmus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/40121126</t>
+  </si>
+  <si>
+    <t>Bottcher, Iul. Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/67211789</t>
+  </si>
+  <si>
+    <t>Boinvilliers, Jean</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/66572996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Bojesen, Ernst Carl Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39736555</t>
+  </si>
+  <si>
+    <t>Bolchesi, Eduard</t>
+  </si>
+  <si>
+    <t>http://www.worldcat.org/identities/np-bolchesi,%20eduard/</t>
+  </si>
+  <si>
+    <t>Dubner, Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12336286</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12528641</t>
+  </si>
+  <si>
+    <t>Bongars, Jacob/Jacques</t>
+  </si>
+  <si>
+    <t>Sanadon, N.E.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/14901377</t>
+  </si>
+  <si>
+    <t>Bonnell, Eduard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64244840</t>
+  </si>
+  <si>
+    <t>Degen, Johann Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52030335</t>
+  </si>
+  <si>
+    <t>Zumpt, Karl Gottlob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37682546</t>
+  </si>
+  <si>
+    <t>Spalding, Georg Ludwig</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/10028125</t>
+  </si>
+  <si>
+    <t>Bonze, Antenor</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/307348791</t>
+  </si>
+  <si>
+    <t>Boot, J.C.G.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89663548</t>
+  </si>
+  <si>
+    <t>Peerlkamp, Petrus Hofmann</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59826654</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2343,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -2261,7 +2351,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -2269,7 +2359,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -2277,7 +2367,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -2285,7 +2375,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -2293,7 +2383,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -2301,7 +2391,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -2309,7 +2399,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -2317,7 +2407,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -2325,7 +2415,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -2333,12 +2423,135 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2351,8 +2564,11 @@
     <hyperlink ref="B21" r:id="rId3" xr:uid="{4C6FD6DD-1109-40A5-9AEB-9AD2973FEFFF}"/>
     <hyperlink ref="B29" r:id="rId4" xr:uid="{48E39569-CD60-4443-BBD7-D862D41D02BD}"/>
     <hyperlink ref="B104" r:id="rId5" xr:uid="{2BDBBDF5-F4AC-45CC-9608-2522D53484B2}"/>
+    <hyperlink ref="B143" r:id="rId6" xr:uid="{233AB2B0-17DD-49C2-8AF8-74E1B2A40943}"/>
+    <hyperlink ref="B144" r:id="rId7" display="http://www.worldcat.org/identities/np-bolchesi, eduard/" xr:uid="{2925A39F-7DFA-4B40-AAA7-04557788DBDF}"/>
+    <hyperlink ref="B146" r:id="rId8" xr:uid="{702207DE-56C9-462D-B3BB-ACA04353DB56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="329" documentId="5_{3427F915-78A8-4E76-BB1C-A0C5BDAB3C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9B76F2D1-F265-4771-B9A9-FA40DD94C6E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ABC9D5-B2D0-487F-9CD8-49FE9CE5E6C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="308">
   <si>
     <t>Name</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/59826654</t>
+  </si>
+  <si>
+    <t>Angelo Mai</t>
   </si>
 </sst>
 </file>
@@ -1306,20 +1309,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="44.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>180</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>285</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>287</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>291</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>293</v>
       </c>
@@ -2506,7 +2509,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>297</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>299</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>301</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>303</v>
       </c>
@@ -2546,12 +2549,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ABC9D5-B2D0-487F-9CD8-49FE9CE5E6C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="5_{6FAD9413-535E-401B-86AD-C6AB2D41F333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A95840D4-BFF9-471E-873E-6F573FBE3BE6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="373">
   <si>
     <t>Name</t>
   </si>
@@ -944,6 +944,201 @@
   </si>
   <si>
     <t>Angelo Mai</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/100180720</t>
+  </si>
+  <si>
+    <t>Borch, Ole</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34451445</t>
+  </si>
+  <si>
+    <t>Vinding, Poul</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52632635</t>
+  </si>
+  <si>
+    <t>Mercier, Josias</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37050389</t>
+  </si>
+  <si>
+    <t>Smids, Ludolph</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/77384764</t>
+  </si>
+  <si>
+    <t>Dresemius, Samuel</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57690210</t>
+  </si>
+  <si>
+    <t>Perizonius, Jacob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57415655</t>
+  </si>
+  <si>
+    <t>Obrecht, Ulrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37066393</t>
+  </si>
+  <si>
+    <t>Borgers, H.J.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61940153</t>
+  </si>
+  <si>
+    <t>Borheck, Augustus Christian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64441999</t>
+  </si>
+  <si>
+    <t>Born, Friedrich Gottlob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52474966</t>
+  </si>
+  <si>
+    <t>Bose, Johann Andreas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52437724</t>
+  </si>
+  <si>
+    <t>Fischer, Johann Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34499180</t>
+  </si>
+  <si>
+    <t>Gschwend, Adam</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/50174353</t>
+  </si>
+  <si>
+    <t>Desbillons, Francois-Joseph Terrasse</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49234186</t>
+  </si>
+  <si>
+    <t>Fea, Carlo</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42054242</t>
+  </si>
+  <si>
+    <t>Botidoux, Jean</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44641044</t>
+  </si>
+  <si>
+    <t>Bouchaud, Mathieu-Antoine</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29575125</t>
+  </si>
+  <si>
+    <t>Bouillet, Marie-Antoin</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/47064770</t>
+  </si>
+  <si>
+    <t>Rinn, J.W.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/63626214</t>
+  </si>
+  <si>
+    <t>Janin, Jules</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/51774748</t>
+  </si>
+  <si>
+    <t>Lemaistre, Felix</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/133834</t>
+  </si>
+  <si>
+    <t>Bourdier, P.A.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/277145541837396600700</t>
+  </si>
+  <si>
+    <t>Bradley, Charles</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/58131778</t>
+  </si>
+  <si>
+    <t>White, John T</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61939758</t>
+  </si>
+  <si>
+    <t>Boysen, Friedrich Eberhard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20413264</t>
+  </si>
+  <si>
+    <t>Breghot, du Luc Claude</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/76360974</t>
+  </si>
+  <si>
+    <t>Brand, Jakob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/35265041</t>
+  </si>
+  <si>
+    <t>Braun, Henricus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29869967</t>
+  </si>
+  <si>
+    <t>Braunhard, Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/167251358</t>
+  </si>
+  <si>
+    <t>Brause, Franz Albert</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/194460593</t>
+  </si>
+  <si>
+    <t>Breitenbach, Ludwig</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/117128571</t>
+  </si>
+  <si>
+    <t>Bremi, Johann Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61889969</t>
   </si>
 </sst>
 </file>
@@ -1309,20 +1504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,7 +1581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1410,7 +1605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1418,7 +1613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1442,7 +1637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1450,7 +1645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1458,7 +1653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1466,7 +1661,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1474,7 +1669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -1482,7 +1677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
@@ -1490,7 +1685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1498,7 +1693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -1506,7 +1701,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -1514,7 +1709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -1522,7 +1717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -1530,7 +1725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1538,7 +1733,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1546,7 +1741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -1554,7 +1749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -1562,7 +1757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1570,7 +1765,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1578,7 +1773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -1586,7 +1781,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -1602,7 +1797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1618,7 +1813,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1626,7 +1821,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1634,7 +1829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1642,7 +1837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -1650,7 +1845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -1658,7 +1853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1666,7 +1861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -1674,7 +1869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1682,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -1690,7 +1885,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -1698,7 +1893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -1706,7 +1901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -1714,7 +1909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -1722,7 +1917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -1730,7 +1925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1738,7 +1933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1746,7 +1941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1754,7 +1949,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1762,7 +1957,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1770,7 +1965,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1778,7 +1973,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1786,7 +1981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1794,7 +1989,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1802,7 +1997,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1810,7 +2005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1818,7 +2013,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1826,7 +2021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1834,7 +2029,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -1842,7 +2037,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1850,7 +2045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1858,7 +2053,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -1866,7 +2061,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1874,7 +2069,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1882,7 +2077,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1890,7 +2085,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -1898,7 +2093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -1906,7 +2101,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
@@ -1914,7 +2109,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -1922,7 +2117,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
@@ -1930,7 +2125,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
@@ -1938,7 +2133,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -1946,7 +2141,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -1954,7 +2149,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -1962,7 +2157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -1970,7 +2165,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -1978,7 +2173,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -1986,7 +2181,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -1994,7 +2189,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -2002,7 +2197,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -2010,7 +2205,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -2018,7 +2213,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -2026,7 +2221,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -2034,7 +2229,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -2042,7 +2237,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -2050,7 +2245,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -2058,7 +2253,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -2066,7 +2261,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -2074,7 +2269,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -2082,7 +2277,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -2090,7 +2285,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -2098,7 +2293,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -2106,7 +2301,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -2114,7 +2309,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -2122,7 +2317,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -2130,7 +2325,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -2138,7 +2333,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -2146,7 +2341,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -2154,7 +2349,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -2162,7 +2357,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -2170,7 +2365,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -2178,7 +2373,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -2186,7 +2381,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -2194,7 +2389,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -2202,7 +2397,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -2210,7 +2405,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -2218,7 +2413,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -2226,7 +2421,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -2234,7 +2429,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -2242,7 +2437,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -2250,7 +2445,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -2258,7 +2453,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -2266,7 +2461,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -2274,7 +2469,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -2282,7 +2477,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -2290,7 +2485,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -2298,7 +2493,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -2306,7 +2501,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -2314,7 +2509,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -2322,7 +2517,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -2330,7 +2525,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -2338,7 +2533,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -2346,7 +2541,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -2354,7 +2549,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -2362,7 +2557,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -2370,7 +2565,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -2378,7 +2573,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -2386,7 +2581,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -2394,7 +2589,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -2402,7 +2597,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -2410,7 +2605,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -2418,7 +2613,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -2426,7 +2621,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
@@ -2434,7 +2629,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>180</v>
       </c>
@@ -2442,7 +2637,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
@@ -2450,7 +2645,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
@@ -2458,7 +2653,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -2466,7 +2661,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>285</v>
       </c>
@@ -2477,7 +2672,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>287</v>
       </c>
@@ -2485,7 +2680,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -2493,7 +2688,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>291</v>
       </c>
@@ -2501,7 +2696,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>293</v>
       </c>
@@ -2509,7 +2704,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
@@ -2517,7 +2712,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>297</v>
       </c>
@@ -2525,7 +2720,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>299</v>
       </c>
@@ -2533,7 +2728,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>301</v>
       </c>
@@ -2541,7 +2736,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>303</v>
       </c>
@@ -2549,7 +2744,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
@@ -2557,9 +2752,268 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>307</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="69" documentId="5_{6FAD9413-535E-401B-86AD-C6AB2D41F333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A95840D4-BFF9-471E-873E-6F573FBE3BE6}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="5_{6FAD9413-535E-401B-86AD-C6AB2D41F333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{49100937-5105-4A92-8195-E238CFD3FBD7}"/>
   <bookViews>
     <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="427">
   <si>
     <t>Name</t>
   </si>
@@ -1139,6 +1139,168 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/61889969</t>
+  </si>
+  <si>
+    <t>Breigleb, Johann Christian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/35210135</t>
+  </si>
+  <si>
+    <t>Brix, Ernst Julius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/35210587</t>
+  </si>
+  <si>
+    <t>Brockhard, Michael</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/191166404</t>
+  </si>
+  <si>
+    <t>Brodribb, William Jackson</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/76716202</t>
+  </si>
+  <si>
+    <t>Church, Alfred John</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45233331</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/164447798</t>
+  </si>
+  <si>
+    <t>Brohm, Karl Friedr. Aug.</t>
+  </si>
+  <si>
+    <t>Brossaeus, C.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59079671</t>
+  </si>
+  <si>
+    <t>Browning, Oscar</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/130145857831723020397</t>
+  </si>
+  <si>
+    <t>Bruder, Carl Hermann</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/18273247</t>
+  </si>
+  <si>
+    <t>Brunck, Richard Francois-Phillipe</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/82656304</t>
+  </si>
+  <si>
+    <t>Bruno, Agostino</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/22515703</t>
+  </si>
+  <si>
+    <t>Bruns, Paul Jakob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17983318</t>
+  </si>
+  <si>
+    <t>Bryce, Archilbald Hamilton</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89610712</t>
+  </si>
+  <si>
+    <t>Buckley, Theodore Alors</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45879798</t>
+  </si>
+  <si>
+    <t>Budai, Ezsaias</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39386168</t>
+  </si>
+  <si>
+    <t>Buenemann, Johann Ludolf</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/780439</t>
+  </si>
+  <si>
+    <t>Burman, Kasper</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88788037</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/47055143</t>
+  </si>
+  <si>
+    <t>Reiske, Johann Jacob</t>
+  </si>
+  <si>
+    <t>Franz, Johann Georg Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12619940</t>
+  </si>
+  <si>
+    <t>Matthiae, F.C.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69692810</t>
+  </si>
+  <si>
+    <t>Heinsius, Daniel</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56635500</t>
+  </si>
+  <si>
+    <t>Heinsius, Nicolaas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/95302161</t>
+  </si>
+  <si>
+    <t>Ciofano, Ercole</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45056369</t>
+  </si>
+  <si>
+    <t>Moltzer, Jakob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56633987</t>
+  </si>
+  <si>
+    <t>Burnouf, Emile</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56629753</t>
+  </si>
+  <si>
+    <t>Burton, Edward</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/75042825</t>
+  </si>
+  <si>
+    <t>Buttmann, Phillip</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39611820</t>
   </si>
 </sst>
 </file>
@@ -1504,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2319,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="33.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -3014,6 +3176,230 @@
       </c>
       <c r="B187" s="3" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="130" documentId="5_{6FAD9413-535E-401B-86AD-C6AB2D41F333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{49100937-5105-4A92-8195-E238CFD3FBD7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF2E59-CC0A-45E8-BB5B-C44A209677DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6110" yWindow="3740" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="428">
   <si>
     <t>Name</t>
   </si>
@@ -1301,6 +1301,9 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/39611820</t>
+  </si>
+  <si>
+    <t>Messala Corvinus's De Augusti Progenie???</t>
   </si>
 </sst>
 </file>
@@ -1666,20 +1669,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
       <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="84.44140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="44.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.453125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -2031,7 +2034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -2735,7 +2738,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>180</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>285</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>287</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>291</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>293</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>297</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>299</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>301</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>303</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>307</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>309</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>313</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>315</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>317</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>319</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>321</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>323</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>325</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>327</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>329</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>331</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>333</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>335</v>
       </c>
@@ -3034,7 +3037,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>337</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>339</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>341</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>343</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>347</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>349</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>351</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>353</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>355</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>357</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>359</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>361</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>363</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>365</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>367</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>369</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>371</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>373</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>375</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>377</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>384</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>385</v>
       </c>
@@ -3234,7 +3237,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>387</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>389</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>391</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>393</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>395</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>397</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>399</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>401</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>403</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>405</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>408</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>409</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>192</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>411</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>413</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>417</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>421</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>423</v>
       </c>
@@ -3394,12 +3397,17 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF2E59-CC0A-45E8-BB5B-C44A209677DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C16E301D-97FD-4D29-AFB7-5EE8B2DE8E96}"/>
   <bookViews>
-    <workbookView xWindow="6110" yWindow="3740" windowWidth="17280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="481">
   <si>
     <t>Name</t>
   </si>
@@ -1304,6 +1304,165 @@
   </si>
   <si>
     <t>Messala Corvinus's De Augusti Progenie???</t>
+  </si>
+  <si>
+    <t>Neumann, C.G.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/8191442</t>
+  </si>
+  <si>
+    <t>Cabaret-Dupaty, J.R.Th.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/99365407</t>
+  </si>
+  <si>
+    <t>Cacciari, F.P.Th.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/73997515</t>
+  </si>
+  <si>
+    <t>Cadet, F.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56678009</t>
+  </si>
+  <si>
+    <t>Caesar, Carl Julius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/79387149</t>
+  </si>
+  <si>
+    <t>Weber, Karl Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/77086281</t>
+  </si>
+  <si>
+    <t>Caillot, Antoine</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/107533474</t>
+  </si>
+  <si>
+    <t>Caldani, Floriano</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52473047</t>
+  </si>
+  <si>
+    <t>Saward, R.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/92817920</t>
+  </si>
+  <si>
+    <t>Camus, Alfredo Adolfo</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/134120728</t>
+  </si>
+  <si>
+    <t>Manfre, Giovanni</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/99576550</t>
+  </si>
+  <si>
+    <t>Capellmann, Aloys</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/1295149719103911130004</t>
+  </si>
+  <si>
+    <t>Capellmann, Richard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/60215810</t>
+  </si>
+  <si>
+    <t>Capes, W.W.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7746486</t>
+  </si>
+  <si>
+    <t>Capperonier, Jean</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17321282</t>
+  </si>
+  <si>
+    <t>Carpzov, Johann Benedict</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/41831382</t>
+  </si>
+  <si>
+    <t>Carson, A.R.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/53680303</t>
+  </si>
+  <si>
+    <t>Cartelier, Auguste</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/290514645</t>
+  </si>
+  <si>
+    <t>Carutti, Domenico</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/120696511</t>
+  </si>
+  <si>
+    <t>Henning, Heinrich Christian von</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/2809161</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88865612</t>
+  </si>
+  <si>
+    <t>Cassola, Gasp.</t>
+  </si>
+  <si>
+    <t>Catrou, P.F.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39367224</t>
+  </si>
+  <si>
+    <t>Cellarius, Cristoph</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17233318</t>
+  </si>
+  <si>
+    <t>Bunemann, Io. Ludolf</t>
+  </si>
+  <si>
+    <t>Pfaff, Matthias</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/8180105</t>
+  </si>
+  <si>
+    <t>Celsus, Julius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/16791156</t>
+  </si>
+  <si>
+    <t>Centerwall, I.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/31976417</t>
   </si>
 </sst>
 </file>
@@ -1669,20 +1828,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="84.453125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="44.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1706,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1714,7 +1873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1730,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +1897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1746,7 +1905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1754,7 +1913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1762,7 +1921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1778,7 +1937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1786,7 +1945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1794,7 +1953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1802,7 +1961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1810,7 +1969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1826,7 +1985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1834,7 +1993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -1842,7 +2001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
@@ -1850,7 +2009,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1858,7 +2017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -1866,7 +2025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -1874,7 +2033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>80</v>
       </c>
@@ -1882,7 +2041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -1890,7 +2049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -1898,7 +2057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1906,7 +2065,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -1914,7 +2073,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -1922,7 +2081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1930,7 +2089,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -1938,7 +2097,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -1946,7 +2105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1954,7 +2113,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -1962,7 +2121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1970,7 +2129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1978,7 +2137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1986,7 +2145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +2153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2002,7 +2161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -2010,7 +2169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2018,7 +2177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -2026,7 +2185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -2034,7 +2193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
@@ -2050,7 +2209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -2058,7 +2217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -2066,7 +2225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
@@ -2074,7 +2233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -2082,7 +2241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -2090,7 +2249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -2098,7 +2257,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -2106,7 +2265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -2114,7 +2273,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -2122,7 +2281,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -2130,7 +2289,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -2138,7 +2297,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -2146,7 +2305,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -2154,7 +2313,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -2162,7 +2321,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -2170,7 +2329,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -2178,7 +2337,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -2186,7 +2345,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -2194,7 +2353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
@@ -2202,7 +2361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -2210,7 +2369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -2218,7 +2377,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -2226,7 +2385,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -2234,7 +2393,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -2242,7 +2401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -2250,7 +2409,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -2258,7 +2417,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -2266,7 +2425,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
@@ -2274,7 +2433,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -2282,7 +2441,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
@@ -2290,7 +2449,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
@@ -2298,7 +2457,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -2306,7 +2465,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -2314,7 +2473,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -2322,7 +2481,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -2330,7 +2489,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -2338,7 +2497,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -2346,7 +2505,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -2354,7 +2513,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -2362,7 +2521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -2370,7 +2529,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -2378,7 +2537,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -2386,7 +2545,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -2394,7 +2553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -2402,7 +2561,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -2410,7 +2569,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -2418,7 +2577,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -2426,7 +2585,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -2434,7 +2593,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -2442,7 +2601,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -2450,7 +2609,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -2458,7 +2617,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -2466,7 +2625,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -2474,7 +2633,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -2482,7 +2641,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -2490,7 +2649,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -2498,7 +2657,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -2506,7 +2665,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -2514,7 +2673,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -2522,7 +2681,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -2530,7 +2689,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -2538,7 +2697,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -2546,7 +2705,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -2554,7 +2713,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -2562,7 +2721,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -2570,7 +2729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -2578,7 +2737,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -2586,7 +2745,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -2594,7 +2753,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -2602,7 +2761,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -2610,7 +2769,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -2618,7 +2777,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -2626,7 +2785,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -2634,7 +2793,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -2642,7 +2801,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -2650,7 +2809,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -2658,7 +2817,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -2666,7 +2825,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -2674,7 +2833,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -2682,7 +2841,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -2690,7 +2849,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -2698,7 +2857,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
@@ -2706,7 +2865,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
@@ -2714,7 +2873,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -2722,7 +2881,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -2730,7 +2889,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -2738,7 +2897,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
@@ -2746,7 +2905,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -2754,7 +2913,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -2762,7 +2921,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -2770,7 +2929,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -2778,7 +2937,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -2786,7 +2945,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
@@ -2794,7 +2953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>180</v>
       </c>
@@ -2802,7 +2961,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>278</v>
       </c>
@@ -2810,7 +2969,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>280</v>
       </c>
@@ -2818,7 +2977,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -2826,7 +2985,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>285</v>
       </c>
@@ -2837,7 +2996,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>287</v>
       </c>
@@ -2845,7 +3004,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -2853,7 +3012,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>291</v>
       </c>
@@ -2861,7 +3020,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>293</v>
       </c>
@@ -2869,7 +3028,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
@@ -2877,7 +3036,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>297</v>
       </c>
@@ -2885,7 +3044,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>299</v>
       </c>
@@ -2893,7 +3052,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>301</v>
       </c>
@@ -2901,7 +3060,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>303</v>
       </c>
@@ -2909,7 +3068,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
@@ -2917,7 +3076,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>307</v>
       </c>
@@ -2925,7 +3084,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>309</v>
       </c>
@@ -2933,7 +3092,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
@@ -2941,7 +3100,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>313</v>
       </c>
@@ -2949,7 +3108,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>315</v>
       </c>
@@ -2957,7 +3116,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>317</v>
       </c>
@@ -2965,7 +3124,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>319</v>
       </c>
@@ -2973,7 +3132,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>321</v>
       </c>
@@ -2981,7 +3140,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>323</v>
       </c>
@@ -2989,7 +3148,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>325</v>
       </c>
@@ -2997,7 +3156,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>327</v>
       </c>
@@ -3005,7 +3164,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>329</v>
       </c>
@@ -3013,7 +3172,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>331</v>
       </c>
@@ -3021,7 +3180,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>333</v>
       </c>
@@ -3029,7 +3188,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>335</v>
       </c>
@@ -3037,7 +3196,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>337</v>
       </c>
@@ -3045,7 +3204,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>339</v>
       </c>
@@ -3053,7 +3212,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>341</v>
       </c>
@@ -3061,7 +3220,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>343</v>
       </c>
@@ -3069,7 +3228,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
@@ -3077,7 +3236,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>347</v>
       </c>
@@ -3085,7 +3244,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>349</v>
       </c>
@@ -3093,7 +3252,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>351</v>
       </c>
@@ -3101,7 +3260,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>353</v>
       </c>
@@ -3109,7 +3268,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>355</v>
       </c>
@@ -3117,7 +3276,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>357</v>
       </c>
@@ -3125,7 +3284,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>359</v>
       </c>
@@ -3133,7 +3292,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>361</v>
       </c>
@@ -3141,7 +3300,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>363</v>
       </c>
@@ -3149,7 +3308,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>365</v>
       </c>
@@ -3157,7 +3316,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>367</v>
       </c>
@@ -3165,7 +3324,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>369</v>
       </c>
@@ -3173,7 +3332,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>371</v>
       </c>
@@ -3181,7 +3340,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>373</v>
       </c>
@@ -3189,7 +3348,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>375</v>
       </c>
@@ -3197,7 +3356,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>377</v>
       </c>
@@ -3205,7 +3364,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
@@ -3213,7 +3372,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
@@ -3221,7 +3380,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>384</v>
       </c>
@@ -3229,7 +3388,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>385</v>
       </c>
@@ -3237,7 +3396,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>387</v>
       </c>
@@ -3245,7 +3404,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>389</v>
       </c>
@@ -3253,7 +3412,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>391</v>
       </c>
@@ -3261,7 +3420,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>393</v>
       </c>
@@ -3269,7 +3428,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>395</v>
       </c>
@@ -3277,7 +3436,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>397</v>
       </c>
@@ -3285,7 +3444,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>399</v>
       </c>
@@ -3293,7 +3452,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>401</v>
       </c>
@@ -3301,7 +3460,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>403</v>
       </c>
@@ -3309,7 +3468,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>405</v>
       </c>
@@ -3317,7 +3476,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>408</v>
       </c>
@@ -3325,7 +3484,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>409</v>
       </c>
@@ -3333,7 +3492,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>192</v>
       </c>
@@ -3341,7 +3500,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>411</v>
       </c>
@@ -3349,7 +3508,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>413</v>
       </c>
@@ -3357,7 +3516,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>415</v>
       </c>
@@ -3365,7 +3524,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>417</v>
       </c>
@@ -3373,7 +3532,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>419</v>
       </c>
@@ -3381,7 +3540,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>421</v>
       </c>
@@ -3389,7 +3548,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>423</v>
       </c>
@@ -3397,7 +3556,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>425</v>
       </c>
@@ -3405,9 +3564,225 @@
         <v>426</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="56" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C16E301D-97FD-4D29-AFB7-5EE8B2DE8E96}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{39B7F856-7C02-4305-AD00-6D2165532E92}"/>
   <bookViews>
     <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="549">
   <si>
     <t>Name</t>
   </si>
@@ -1463,6 +1463,210 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/31976417</t>
+  </si>
+  <si>
+    <t>Kerchever, Thomas Arnold</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/36037910</t>
+  </si>
+  <si>
+    <t>Cataldo, Jannelli</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/71737348</t>
+  </si>
+  <si>
+    <t>Chambry, Emile</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/108834949</t>
+  </si>
+  <si>
+    <t>Picart, Bernard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64010408</t>
+  </si>
+  <si>
+    <t>Bouhier, Jean</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34453545</t>
+  </si>
+  <si>
+    <t>Chanselle, Antoine</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/305872693</t>
+  </si>
+  <si>
+    <t>Charles, Emile Auguste</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88648462</t>
+  </si>
+  <si>
+    <t>Chase, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/8862230</t>
+  </si>
+  <si>
+    <t>Clement, Felix</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44344471</t>
+  </si>
+  <si>
+    <t>Clarke, Samuel</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/46768940</t>
+  </si>
+  <si>
+    <t>Vossius, Dionysius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/68494670</t>
+  </si>
+  <si>
+    <t>Classen, Johannes</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/35256124</t>
+  </si>
+  <si>
+    <t>Closs, Karl August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/72395841</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17130185</t>
+  </si>
+  <si>
+    <t>Cnippingius, Borchardus</t>
+  </si>
+  <si>
+    <t>Cockman, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/4572536</t>
+  </si>
+  <si>
+    <t>Cocquelines, Carolus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69282637</t>
+  </si>
+  <si>
+    <t>Collesso, Vincentius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/74204126</t>
+  </si>
+  <si>
+    <t>Collet, Ferdinand</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29079042</t>
+  </si>
+  <si>
+    <t>Collombet, F.Z.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/54139113</t>
+  </si>
+  <si>
+    <t>Gregoire, J.F.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/85931301</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/35587957</t>
+  </si>
+  <si>
+    <t>Comte de Rewiczky, Emmer. Alex.</t>
+  </si>
+  <si>
+    <t>Conington, John</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20464050</t>
+  </si>
+  <si>
+    <t>Conrad, Julius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/309697220</t>
+  </si>
+  <si>
+    <t>Conrad, Johann Ludwig</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/31265666</t>
+  </si>
+  <si>
+    <t>Conterno, Giunio</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19597376</t>
+  </si>
+  <si>
+    <t>Cooke, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19715963</t>
+  </si>
+  <si>
+    <t>Corpet, Etienne Francois</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27140347</t>
+  </si>
+  <si>
+    <t>Corsetti, Francesco</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/54486064</t>
+  </si>
+  <si>
+    <t>Corte, Gottlieb</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59833466</t>
+  </si>
+  <si>
+    <t>Durantinus, Constantius Felicius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/274152636063020050684</t>
+  </si>
+  <si>
+    <t>Longolius, Paul Daniel</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/30337543</t>
+  </si>
+  <si>
+    <t>Courtin, Nicolas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/93145542616996641966</t>
+  </si>
+  <si>
+    <t>Cramer, Francis Henry</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/67324290</t>
+  </si>
+  <si>
+    <t>Heinrich, Karl Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52447539</t>
   </si>
 </sst>
 </file>
@@ -1828,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3783,6 +3987,278 @@
       </c>
       <c r="B243" s="3" t="s">
         <v>480</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>522</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="133" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{39B7F856-7C02-4305-AD00-6D2165532E92}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{480D6A3D-3F0B-4BC3-8EF8-21C51645754A}"/>
   <bookViews>
     <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="595">
   <si>
     <t>Name</t>
   </si>
@@ -1667,6 +1667,144 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/52447539</t>
+  </si>
+  <si>
+    <t>Crecelius, W.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27829960</t>
+  </si>
+  <si>
+    <t>Creech, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42766081</t>
+  </si>
+  <si>
+    <t>see 611</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Crespin, Daniel</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/36947307</t>
+  </si>
+  <si>
+    <t>Creuzer, Georg Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44379708</t>
+  </si>
+  <si>
+    <t>Moser, Georg Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17657555</t>
+  </si>
+  <si>
+    <t>Wyttenbach, Daniel Albert</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44351611</t>
+  </si>
+  <si>
+    <t>Davies, John</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/65186822</t>
+  </si>
+  <si>
+    <t>Crevier, J.B.L.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24600085</t>
+  </si>
+  <si>
+    <t>Drakenborch, Arnold</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59882122</t>
+  </si>
+  <si>
+    <t>Croiset, P.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/290513162</t>
+  </si>
+  <si>
+    <t>Crosby, William Henry</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/212928216</t>
+  </si>
+  <si>
+    <t>Crousle, L.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7439110</t>
+  </si>
+  <si>
+    <t>Crusius, G. Ch.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/35216285</t>
+  </si>
+  <si>
+    <t>Mobius, Anton</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20447551</t>
+  </si>
+  <si>
+    <t>Muhlmann, G.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/84780869</t>
+  </si>
+  <si>
+    <t>Cubaeus, Gotth. Aug,</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/270578373</t>
+  </si>
+  <si>
+    <t>Cuningham, Alex,</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56467568</t>
+  </si>
+  <si>
+    <t>Currie, J.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/31149294081280520463</t>
+  </si>
+  <si>
+    <t>Curtze, Louis Friedrich Christian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29896850</t>
+  </si>
+  <si>
+    <t>see 656</t>
+  </si>
+  <si>
+    <t>Doring, Moritz</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/10590422</t>
+  </si>
+  <si>
+    <t>Casaubon, Meric</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/2526206</t>
+  </si>
+  <si>
+    <t>Mai, Angelo</t>
   </si>
 </sst>
 </file>
@@ -2032,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4259,6 +4397,198 @@
       </c>
       <c r="B277" s="3" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4274,8 +4604,9 @@
     <hyperlink ref="B143" r:id="rId6" xr:uid="{233AB2B0-17DD-49C2-8AF8-74E1B2A40943}"/>
     <hyperlink ref="B144" r:id="rId7" display="http://www.worldcat.org/identities/np-bolchesi, eduard/" xr:uid="{2925A39F-7DFA-4B40-AAA7-04557788DBDF}"/>
     <hyperlink ref="B146" r:id="rId8" xr:uid="{702207DE-56C9-462D-B3BB-ACA04353DB56}"/>
+    <hyperlink ref="B300" r:id="rId9" xr:uid="{BE116454-668C-4656-8D25-0E4297831C21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="182" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{480D6A3D-3F0B-4BC3-8EF8-21C51645754A}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{DE48F3CE-2035-444D-84BA-57A332C57DD8}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="627">
   <si>
     <t>Name</t>
   </si>
@@ -1711,12 +1711,6 @@
     <t>http://viaf.org/viaf/44351611</t>
   </si>
   <si>
-    <t>Davies, John</t>
-  </si>
-  <si>
-    <t>http://viaf.org/viaf/65186822</t>
-  </si>
-  <si>
     <t>Crevier, J.B.L.</t>
   </si>
   <si>
@@ -1805,6 +1799,108 @@
   </si>
   <si>
     <t>Mai, Angelo</t>
+  </si>
+  <si>
+    <t>Dummler, Ernst</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/2552226</t>
+  </si>
+  <si>
+    <t>Duntzer, Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/46844264</t>
+  </si>
+  <si>
+    <t>Desprez, Louis</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/78823988</t>
+  </si>
+  <si>
+    <t>Gottschling, Caspar</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/71723197</t>
+  </si>
+  <si>
+    <t>Daehne, Johann Christoph</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/273408152</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/74191242</t>
+  </si>
+  <si>
+    <t>Dahl, Johann Christian Wilhelm</t>
+  </si>
+  <si>
+    <t>Damm, Christian T.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69671059</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/6645</t>
+  </si>
+  <si>
+    <t>D'Andilly, Robert Arnaud</t>
+  </si>
+  <si>
+    <t>Gude, Marquard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59865177</t>
+  </si>
+  <si>
+    <t>Daniel, Hermann Adelbert</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/47102624</t>
+  </si>
+  <si>
+    <t>Danz, Jo. Traug, Lebr.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45043944</t>
+  </si>
+  <si>
+    <t>Daremberg, C.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/84795155</t>
+  </si>
+  <si>
+    <t>Davidson, Joseph</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/4149155286674687180000</t>
+  </si>
+  <si>
+    <t>Davies, James</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/21302436</t>
+  </si>
+  <si>
+    <t>Bohier, Nicolas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12481096</t>
+  </si>
+  <si>
+    <t>Turnebe, Adrien</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7445187</t>
+  </si>
+  <si>
+    <t>Fabre, Pierre</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/73851967</t>
   </si>
 </sst>
 </file>
@@ -2170,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4551,48 +4647,176 @@
         <v>586</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="B298" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>593</v>
+      <c r="B300" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B301" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B301" s="3" t="s">
-        <v>308</v>
+    </row>
+    <row r="302" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B50">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B50">
     <sortCondition ref="A28"/>
   </sortState>
   <hyperlinks>
@@ -4604,7 +4828,7 @@
     <hyperlink ref="B143" r:id="rId6" xr:uid="{233AB2B0-17DD-49C2-8AF8-74E1B2A40943}"/>
     <hyperlink ref="B144" r:id="rId7" display="http://www.worldcat.org/identities/np-bolchesi, eduard/" xr:uid="{2925A39F-7DFA-4B40-AAA7-04557788DBDF}"/>
     <hyperlink ref="B146" r:id="rId8" xr:uid="{702207DE-56C9-462D-B3BB-ACA04353DB56}"/>
-    <hyperlink ref="B300" r:id="rId9" xr:uid="{BE116454-668C-4656-8D25-0E4297831C21}"/>
+    <hyperlink ref="B299" r:id="rId9" xr:uid="{BE116454-668C-4656-8D25-0E4297831C21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="222" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{DE48F3CE-2035-444D-84BA-57A332C57DD8}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{455CD06E-B11A-4F07-A395-16720BFC2733}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="673">
   <si>
     <t>Name</t>
   </si>
@@ -1901,6 +1901,144 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/73851967</t>
+  </si>
+  <si>
+    <t>de Bataut, Bernard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64344772</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/5238087</t>
+  </si>
+  <si>
+    <t>de Calonne, P.F.</t>
+  </si>
+  <si>
+    <t>de Gelder, J.J.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17576645</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/278406078</t>
+  </si>
+  <si>
+    <t>de Gloeden, Iwan</t>
+  </si>
+  <si>
+    <t>de Lorenzana, Fr.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/14796228</t>
+  </si>
+  <si>
+    <t>de Rossi, Antonio</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89060986</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/73844647</t>
+  </si>
+  <si>
+    <t>de Scheyb, Franc. Christoph</t>
+  </si>
+  <si>
+    <t>Debure de Saint Fauxbin, Jean Francois</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/168347785</t>
+  </si>
+  <si>
+    <t>Deenik, Albertus Agathus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39730386</t>
+  </si>
+  <si>
+    <t>Delatour, M.S.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37268397</t>
+  </si>
+  <si>
+    <t>Delille, Jacques</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59081234</t>
+  </si>
+  <si>
+    <t>Delongchamps, M.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/104497423</t>
+  </si>
+  <si>
+    <t>Desing, A.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7604848</t>
+  </si>
+  <si>
+    <t>Desjardins, Ernest</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39510149</t>
+  </si>
+  <si>
+    <t>Desjardins, Nicolas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49577170</t>
+  </si>
+  <si>
+    <t>Desportes, Auguste</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/76308527</t>
+  </si>
+  <si>
+    <t>Sommer, Edouard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37010941</t>
+  </si>
+  <si>
+    <t>Detlefsen, D.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27158872</t>
+  </si>
+  <si>
+    <t>Lemaire, Nicolas Eloi</t>
+  </si>
+  <si>
+    <t>ttp://viaf.org/viaf/12423680</t>
+  </si>
+  <si>
+    <t>Didot, Firmin</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/54239780</t>
+  </si>
+  <si>
+    <t>Didot, Pierre</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/85705320</t>
+  </si>
+  <si>
+    <t>Diefenbach, Lorenz</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69014898</t>
+  </si>
+  <si>
+    <t>Dilthey, Julius Friedrich Karl</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56951917</t>
   </si>
 </sst>
 </file>
@@ -2266,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A318" sqref="A318"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4813,6 +4951,190 @@
       </c>
       <c r="B317" s="3" t="s">
         <v>626</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -4829,8 +5151,9 @@
     <hyperlink ref="B144" r:id="rId7" display="http://www.worldcat.org/identities/np-bolchesi, eduard/" xr:uid="{2925A39F-7DFA-4B40-AAA7-04557788DBDF}"/>
     <hyperlink ref="B146" r:id="rId8" xr:uid="{702207DE-56C9-462D-B3BB-ACA04353DB56}"/>
     <hyperlink ref="B299" r:id="rId9" xr:uid="{BE116454-668C-4656-8D25-0E4297831C21}"/>
+    <hyperlink ref="B329" r:id="rId10" xr:uid="{0E4B29E6-1623-492B-96BC-F6F5DF9FA360}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="272" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{455CD06E-B11A-4F07-A395-16720BFC2733}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{858DDBB3-6A7D-46E3-AF74-31E77FE6551D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="708">
   <si>
     <t>Name</t>
   </si>
@@ -2039,6 +2039,111 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/56951917</t>
+  </si>
+  <si>
+    <t>Doberenz, Albert</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27412709</t>
+  </si>
+  <si>
+    <t>Doederlein, Ludwig von</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/62346696</t>
+  </si>
+  <si>
+    <t>Doergens, Herman</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32741202</t>
+  </si>
+  <si>
+    <t>Doering, Friedrich Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/15205514</t>
+  </si>
+  <si>
+    <t>Stroth, Fr. Andr.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/118505031</t>
+  </si>
+  <si>
+    <t>Doneaud, Charles Alfred</t>
+  </si>
+  <si>
+    <t>Dorighello, Franciscus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17622969</t>
+  </si>
+  <si>
+    <t>Dotteville, Jean-Henri</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29644384</t>
+  </si>
+  <si>
+    <t>Doullay, E</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/304920394</t>
+  </si>
+  <si>
+    <t>Draeger, A.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/15870902</t>
+  </si>
+  <si>
+    <t>Dragheim, Joh. Benj.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/212313519</t>
+  </si>
+  <si>
+    <t>Carey, Jo.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/71740278</t>
+  </si>
+  <si>
+    <t>Homer, H.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/22049531</t>
+  </si>
+  <si>
+    <t>Drescher, Gottlieb Freidrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24991552</t>
+  </si>
+  <si>
+    <t>Dressel, Albert Rudolf Maximillian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52436569</t>
+  </si>
+  <si>
+    <t>Dressler, Christian Timoth.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34845032</t>
+  </si>
+  <si>
+    <t>Dronke, Ernst Friedrich Johann</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56600249</t>
+  </si>
+  <si>
+    <t>Droysen, Hans</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37046039</t>
   </si>
 </sst>
 </file>
@@ -2404,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B340" sqref="B340"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5135,6 +5240,150 @@
       </c>
       <c r="B340" s="3" t="s">
         <v>672</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="311" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{858DDBB3-6A7D-46E3-AF74-31E77FE6551D}"/>
+  <xr:revisionPtr revIDLastSave="359" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AB3B01FD-D524-4D70-8985-49220D170DF1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="752">
   <si>
     <t>Name</t>
   </si>
@@ -2144,6 +2144,138 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/37046039</t>
+  </si>
+  <si>
+    <t>du Bocage, Barbie</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/187635471</t>
+  </si>
+  <si>
+    <t>du Hamel, Johannes</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/14779364</t>
+  </si>
+  <si>
+    <t>Eloi, Johanneau</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12358288</t>
+  </si>
+  <si>
+    <t>Duemmler, Ernst</t>
+  </si>
+  <si>
+    <t>Duentzer, Heinrich</t>
+  </si>
+  <si>
+    <t>Duhn, Friedrich Karl von</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/14848517</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/31995725</t>
+  </si>
+  <si>
+    <t>Dujatius, Johannes</t>
+  </si>
+  <si>
+    <t>Freinshemius, Johannes</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/82776509</t>
+  </si>
+  <si>
+    <t>Duker, Karl Andreas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49971785</t>
+  </si>
+  <si>
+    <t>Duncan, William</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/8654261</t>
+  </si>
+  <si>
+    <t>Dupaty, Charles- Marguerite- Jean- Baptiste- Mercier</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19728250</t>
+  </si>
+  <si>
+    <t>Dupont, Odile</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/74129833</t>
+  </si>
+  <si>
+    <t>Durach, Johann B</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64854824</t>
+  </si>
+  <si>
+    <t>Durand, David</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/100188302</t>
+  </si>
+  <si>
+    <t>Cantel, Pierre-Joseph</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/46751902</t>
+  </si>
+  <si>
+    <t>Durand, Hippolyte</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/287043683</t>
+  </si>
+  <si>
+    <t>Dureau de la Malle</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/99779253</t>
+  </si>
+  <si>
+    <t>Duviquet, Pierre</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32047784</t>
+  </si>
+  <si>
+    <t>Dymock, John</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/171923125</t>
+  </si>
+  <si>
+    <t>Dziatzko, Karl Franz Otto</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64138119</t>
+  </si>
+  <si>
+    <t>Ebeling, Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88851080</t>
+  </si>
+  <si>
+    <t>Eberhard, Alfred</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59832981</t>
+  </si>
+  <si>
+    <t>Richter, Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/168461672</t>
   </si>
 </sst>
 </file>
@@ -2509,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="A359" sqref="A359"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5384,6 +5516,190 @@
       </c>
       <c r="B358" s="3" t="s">
         <v>707</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="359" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AB3B01FD-D524-4D70-8985-49220D170DF1}"/>
+  <xr:revisionPtr revIDLastSave="489" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{413005F7-3E3A-492A-AE2B-219E31DBCFFF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="877">
   <si>
     <t>Name</t>
   </si>
@@ -2276,6 +2276,381 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/168461672</t>
+  </si>
+  <si>
+    <t>see row 843</t>
+  </si>
+  <si>
+    <t>Eckstein, Friedrich August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49974586</t>
+  </si>
+  <si>
+    <t>Egger, Emile</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/46863959</t>
+  </si>
+  <si>
+    <t>Eichenfeld, Joseph von</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/171636751</t>
+  </si>
+  <si>
+    <t>Endlicher, Stephan</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/54303131</t>
+  </si>
+  <si>
+    <t>Eichert, Otto</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32371493</t>
+  </si>
+  <si>
+    <t>Eichstaedt, Heinrich Karl Abraham</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32425260</t>
+  </si>
+  <si>
+    <t>Lenz, Karl Gotthold</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32760437</t>
+  </si>
+  <si>
+    <t>Ek, Johann Gustav</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/76690033</t>
+  </si>
+  <si>
+    <t>Elberling, C.G.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/291535297</t>
+  </si>
+  <si>
+    <t>Elberling, K.W.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64860692</t>
+  </si>
+  <si>
+    <t>Elix, C.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24976545</t>
+  </si>
+  <si>
+    <t>Ellendt, Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61636278</t>
+  </si>
+  <si>
+    <t>Elphinstonius, Jacob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/65546831</t>
+  </si>
+  <si>
+    <t>Emmert, Johann Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27969816</t>
+  </si>
+  <si>
+    <t>Engle, Michael</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/30477727</t>
+  </si>
+  <si>
+    <t>Englmann, Lorenz</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/49978459</t>
+  </si>
+  <si>
+    <t>Erfurdt, Karl Gottlob August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69366626</t>
+  </si>
+  <si>
+    <t>Fabricius, Johann Albert</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24623353</t>
+  </si>
+  <si>
+    <t>Giovenazzio, V.M.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64349070</t>
+  </si>
+  <si>
+    <t>Nobbe, Karl Friedrich August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12415683</t>
+  </si>
+  <si>
+    <t>Olivet, Pierre-Joseph Thoulier</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/99337414</t>
+  </si>
+  <si>
+    <t>Popmen, Ausonius van</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42183120</t>
+  </si>
+  <si>
+    <t>Gesner, Johann Matthias</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32094874</t>
+  </si>
+  <si>
+    <t>Eschenburg, Johann Joachim</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59108800</t>
+  </si>
+  <si>
+    <t>Escott, T.H.S.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61663086</t>
+  </si>
+  <si>
+    <t>Essenius, Hermannus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/268090934</t>
+  </si>
+  <si>
+    <t>Westerhovius, A.H.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24958455</t>
+  </si>
+  <si>
+    <t>Exter, Frid. Christ</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32085192</t>
+  </si>
+  <si>
+    <t>Fabri, Ernst Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32746473</t>
+  </si>
+  <si>
+    <t>Bentley, Richard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27862472</t>
+  </si>
+  <si>
+    <t>Schwabe, Johann Samuel Gottlob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17339256</t>
+  </si>
+  <si>
+    <t>Farnaby, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/76361340</t>
+  </si>
+  <si>
+    <t>Oviedo, Rodrigo de</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/87142136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambinus, Dionysius </t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89788393</t>
+  </si>
+  <si>
+    <t>Fayus, Michael</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/91892081</t>
+  </si>
+  <si>
+    <t>Feder, Joh. Mich.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37713910</t>
+  </si>
+  <si>
+    <t>Feldbausch, Felix Sebastian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57366887</t>
+  </si>
+  <si>
+    <t>Feldheugel, Carl Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/10597624</t>
+  </si>
+  <si>
+    <t>see rows 961-962</t>
+  </si>
+  <si>
+    <t>Ferrarius, Guido</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/72564604</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/445036</t>
+  </si>
+  <si>
+    <t>Ferratius, M. Antonius</t>
+  </si>
+  <si>
+    <t>Fickert, Karl Rudolf</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/77068733</t>
+  </si>
+  <si>
+    <t>Fiedler, Franciscus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/74035220</t>
+  </si>
+  <si>
+    <t>Fiericht, Xaver</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/75156312351502080324</t>
+  </si>
+  <si>
+    <t>Fikenscher, Geo. Wolfg. Aug.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/74604859</t>
+  </si>
+  <si>
+    <t>Finck, Theodor</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12702004</t>
+  </si>
+  <si>
+    <t>Fincke, J.C.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/64360077</t>
+  </si>
+  <si>
+    <t>Renner, Chph. F.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/309667488</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/47869171</t>
+  </si>
+  <si>
+    <t>Fischbeck, Chr. M.</t>
+  </si>
+  <si>
+    <t>Fischer, Gtfr. A.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69987063</t>
+  </si>
+  <si>
+    <t>Fittbogen, W.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/10251858</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/101583281</t>
+  </si>
+  <si>
+    <t>Fluegge, Heinrich Hermann</t>
+  </si>
+  <si>
+    <t>Foerster, Wendelin</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24665737</t>
+  </si>
+  <si>
+    <t>Goetzius, Andreas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/67597364</t>
+  </si>
+  <si>
+    <t>see row 989</t>
+  </si>
+  <si>
+    <t>Folsom, Charles</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24455021</t>
+  </si>
+  <si>
+    <t>Forbiger, Albert</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/74608819</t>
+  </si>
+  <si>
+    <t>Forbiger, Theoph. Sam.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56266847</t>
+  </si>
+  <si>
+    <t>Fornaciari, Raffaello</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34587369</t>
+  </si>
+  <si>
+    <t>Forslund, Johannes Augustus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/4902363</t>
+  </si>
+  <si>
+    <t>Forster, Frobenius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42594848</t>
+  </si>
+  <si>
+    <t>Fortia d'Urban</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19714887</t>
+  </si>
+  <si>
+    <t>Miller, E.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89292035</t>
   </si>
 </sst>
 </file>
@@ -2641,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:E445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="A382" sqref="A382"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5700,6 +6075,509 @@
       </c>
       <c r="B381" s="3" t="s">
         <v>751</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>867</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>869</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -5717,8 +6595,9 @@
     <hyperlink ref="B146" r:id="rId8" xr:uid="{702207DE-56C9-462D-B3BB-ACA04353DB56}"/>
     <hyperlink ref="B299" r:id="rId9" xr:uid="{BE116454-668C-4656-8D25-0E4297831C21}"/>
     <hyperlink ref="B329" r:id="rId10" xr:uid="{0E4B29E6-1623-492B-96BC-F6F5DF9FA360}"/>
+    <hyperlink ref="B401" r:id="rId11" xr:uid="{F36AD149-7064-4B82-958D-C7F0FF31E1D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="489" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{413005F7-3E3A-492A-AE2B-219E31DBCFFF}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7C1F77BE-EA29-4454-85EE-0FC5C6B31197}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="909">
   <si>
     <t>Name</t>
   </si>
@@ -2182,12 +2182,6 @@
     <t>Dujatius, Johannes</t>
   </si>
   <si>
-    <t>Freinshemius, Johannes</t>
-  </si>
-  <si>
-    <t>http://viaf.org/viaf/82776509</t>
-  </si>
-  <si>
     <t>Duker, Karl Andreas</t>
   </si>
   <si>
@@ -2651,6 +2645,108 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/89292035</t>
+  </si>
+  <si>
+    <t>Fouquier, P.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/25382411</t>
+  </si>
+  <si>
+    <t>Ratier, F.S.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/25386326</t>
+  </si>
+  <si>
+    <t>Francis, Philip</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/223591</t>
+  </si>
+  <si>
+    <t>Francken, C.M.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/35215023</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/67200977</t>
+  </si>
+  <si>
+    <t>Tomasini, Giacomo Filippo</t>
+  </si>
+  <si>
+    <t>Weise, C.H.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57349607</t>
+  </si>
+  <si>
+    <t>Freinsheim, Melchior</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/305805127</t>
+  </si>
+  <si>
+    <t>Freund, William</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/15528757</t>
+  </si>
+  <si>
+    <t>Friese, Johann Bernhard</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/15125306</t>
+  </si>
+  <si>
+    <t>see rows 1038-1040</t>
+  </si>
+  <si>
+    <t>Fritsch, Caspar</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/36535377</t>
+  </si>
+  <si>
+    <t>Kuehnoel, Christian Gottlieb</t>
+  </si>
+  <si>
+    <t>Fritzsche, Ad. Th. Herm.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89797509</t>
+  </si>
+  <si>
+    <t>Frost, Percival</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59864130</t>
+  </si>
+  <si>
+    <t>Meyer, Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/136145544139096660003</t>
+  </si>
+  <si>
+    <t>Fulleborn, Geo. Gust.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/9980462</t>
+  </si>
+  <si>
+    <t>Fumagalli, C.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/68978070</t>
+  </si>
+  <si>
+    <t>Funck, Johann Nikolaus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7538820</t>
   </si>
 </sst>
 </file>
@@ -3016,10 +3112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E445"/>
+  <dimension ref="A1:E462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6069,16 +6165,16 @@
         <v>749</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B381" s="3" t="s">
+    </row>
+    <row r="382" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+      <c r="B382" s="3" t="s">
         <v>752</v>
       </c>
     </row>
@@ -6218,19 +6314,19 @@
         <v>786</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B401" s="3" t="s">
         <v>790</v>
       </c>
     </row>
@@ -6378,33 +6474,33 @@
         <v>826</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B420" s="3" t="s">
+    </row>
+    <row r="421" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+      <c r="B421" s="3" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B422" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B423" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
@@ -6457,18 +6553,18 @@
     </row>
     <row r="430" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B430" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B431" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
@@ -6481,18 +6577,18 @@
     </row>
     <row r="433" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B433" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="B433" s="3" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B434" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="B434" s="3" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
@@ -6503,16 +6599,16 @@
         <v>857</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B436" s="3" t="s">
+    </row>
+    <row r="437" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
+      <c r="B437" s="3" t="s">
         <v>860</v>
       </c>
     </row>
@@ -6532,8 +6628,8 @@
         <v>864</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
+    <row r="440" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>865</v>
       </c>
       <c r="B440" s="3" t="s">
@@ -6548,8 +6644,8 @@
         <v>868</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+    <row r="442" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
         <v>869</v>
       </c>
       <c r="B442" s="3" t="s">
@@ -6578,6 +6674,139 @@
       </c>
       <c r="B445" s="3" t="s">
         <v>876</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>897</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +6824,7 @@
     <hyperlink ref="B146" r:id="rId8" xr:uid="{702207DE-56C9-462D-B3BB-ACA04353DB56}"/>
     <hyperlink ref="B299" r:id="rId9" xr:uid="{BE116454-668C-4656-8D25-0E4297831C21}"/>
     <hyperlink ref="B329" r:id="rId10" xr:uid="{0E4B29E6-1623-492B-96BC-F6F5DF9FA360}"/>
-    <hyperlink ref="B401" r:id="rId11" xr:uid="{F36AD149-7064-4B82-958D-C7F0FF31E1D6}"/>
+    <hyperlink ref="B400" r:id="rId11" xr:uid="{F36AD149-7064-4B82-958D-C7F0FF31E1D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="528" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7C1F77BE-EA29-4454-85EE-0FC5C6B31197}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{CD9D8711-86FA-454F-86F2-764A2EF8E280}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="958">
   <si>
     <t>Name</t>
   </si>
@@ -2747,6 +2747,153 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/7538820</t>
+  </si>
+  <si>
+    <t>Gahagan, Usher</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19536818</t>
+  </si>
+  <si>
+    <t>Gail, J.-B.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32104930</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/51742598</t>
+  </si>
+  <si>
+    <t>Gaisford, Thomas</t>
+  </si>
+  <si>
+    <t>Gale, Roger</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/62981706</t>
+  </si>
+  <si>
+    <t>Gale, Thomas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/46783945</t>
+  </si>
+  <si>
+    <t>Galetschky, Heinrich.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/296759675</t>
+  </si>
+  <si>
+    <t>Gallandi, Andreas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/46898988</t>
+  </si>
+  <si>
+    <t>Gantrelle, Joseph</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37308965</t>
+  </si>
+  <si>
+    <t>Garatoni, Gasparo</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/62299635</t>
+  </si>
+  <si>
+    <t>Garcke, Heinrich Hermann</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/291227470</t>
+  </si>
+  <si>
+    <t>Gehlen, Otto</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89797725</t>
+  </si>
+  <si>
+    <t>Gence, I.B.M.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/54148126</t>
+  </si>
+  <si>
+    <t>Genouille, J.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/99881394</t>
+  </si>
+  <si>
+    <t>Valatour, A.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/169220338</t>
+  </si>
+  <si>
+    <t>Geppert, C.E.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27825777</t>
+  </si>
+  <si>
+    <t>Gerlach, Franz Dorotheus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45057885</t>
+  </si>
+  <si>
+    <t>Roth, Karl Ludwig</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37672371</t>
+  </si>
+  <si>
+    <t>Wachernagel, Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7513817</t>
+  </si>
+  <si>
+    <t>Gernhard, A.G.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/15523952</t>
+  </si>
+  <si>
+    <t>Gersdorf, E.G.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27826494</t>
+  </si>
+  <si>
+    <t>Gertz, M.C.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/54528462</t>
+  </si>
+  <si>
+    <t>Markland, Jeremiah</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17571192</t>
+  </si>
+  <si>
+    <t>Wolf, F.A.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45080401</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34804072</t>
+  </si>
+  <si>
+    <t>Giani, Giovanni, Battista</t>
+  </si>
+  <si>
+    <t>see row 1121</t>
   </si>
 </sst>
 </file>
@@ -3112,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E462"/>
+  <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="B462" sqref="B462"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A488" sqref="A488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6807,6 +6954,203 @@
       </c>
       <c r="B462" s="3" t="s">
         <v>908</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>919</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>927</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -6825,8 +7169,9 @@
     <hyperlink ref="B299" r:id="rId9" xr:uid="{BE116454-668C-4656-8D25-0E4297831C21}"/>
     <hyperlink ref="B329" r:id="rId10" xr:uid="{0E4B29E6-1623-492B-96BC-F6F5DF9FA360}"/>
     <hyperlink ref="B400" r:id="rId11" xr:uid="{F36AD149-7064-4B82-958D-C7F0FF31E1D6}"/>
+    <hyperlink ref="B476" r:id="rId12" xr:uid="{41734D77-2266-494E-94BD-46704C941CFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="580" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{CD9D8711-86FA-454F-86F2-764A2EF8E280}"/>
+  <xr:revisionPtr revIDLastSave="708" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F5EBBC09-E544-4FD3-BEE6-F7FF3EEA9274}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="1069">
   <si>
     <t>Name</t>
   </si>
@@ -2890,10 +2890,343 @@
     <t>http://viaf.org/viaf/34804072</t>
   </si>
   <si>
-    <t>Giani, Giovanni, Battista</t>
-  </si>
-  <si>
     <t>see row 1121</t>
+  </si>
+  <si>
+    <t>Giani, Giovanni Battista</t>
+  </si>
+  <si>
+    <t>Gierig, Gottlieb Erdmann</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/167532</t>
+  </si>
+  <si>
+    <t>Giese, August Otto Ludwig</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/309715074</t>
+  </si>
+  <si>
+    <t>Gilbert, Robert Otto</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57395155</t>
+  </si>
+  <si>
+    <t>Putsche, Carl Wilhelm Ernst</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57363540</t>
+  </si>
+  <si>
+    <t>Giraud, Charles</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24650599</t>
+  </si>
+  <si>
+    <t>Girdlestone, Charles</t>
+  </si>
+  <si>
+    <t>Osborne, W.A.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/75420102</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/34115225</t>
+  </si>
+  <si>
+    <t>Gjertsen, Fredrik</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/228250567</t>
+  </si>
+  <si>
+    <t>Bugge, Sophus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27173613</t>
+  </si>
+  <si>
+    <t>Glaeser, C.E.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/282879816</t>
+  </si>
+  <si>
+    <t>Glaser, Emil</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37672773</t>
+  </si>
+  <si>
+    <t>Goebbel, Franz Caspar</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/304968718</t>
+  </si>
+  <si>
+    <t>Goeller, Franc.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/200766093</t>
+  </si>
+  <si>
+    <t>Goerenz, Johann August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/771366</t>
+  </si>
+  <si>
+    <t>Otto, Friedrich Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/10201490</t>
+  </si>
+  <si>
+    <t>Goez, Andries</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57374554</t>
+  </si>
+  <si>
+    <t>Goez, Ioann. Adam</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/53989757</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/19823909</t>
+  </si>
+  <si>
+    <t>GolbÃ©ry, Philip AimÃ© de</t>
+  </si>
+  <si>
+    <t>Goldbacher, Alois</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/232812150</t>
+  </si>
+  <si>
+    <t>Goldhorn, D. I. H.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20026714</t>
+  </si>
+  <si>
+    <t>Gonod, B.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/284361995</t>
+  </si>
+  <si>
+    <t>Good, John Mason</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/47542843</t>
+  </si>
+  <si>
+    <t>Gossrau, Gottfried Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/18083665</t>
+  </si>
+  <si>
+    <t>Oudendorp, Franciscus van</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/37257920</t>
+  </si>
+  <si>
+    <t>Brutus, Io. Mich.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/316423699</t>
+  </si>
+  <si>
+    <t>Graff, E. G.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56682761</t>
+  </si>
+  <si>
+    <t>Grauert, Guil. Henr.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/45063923</t>
+  </si>
+  <si>
+    <t>Grautoff, Paul</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/266395620</t>
+  </si>
+  <si>
+    <t>Gravelot, Hubert Francois</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/47065548</t>
+  </si>
+  <si>
+    <t>Greenough, J.B.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39744457</t>
+  </si>
+  <si>
+    <t>Allen, Joseph Henry</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/77615260</t>
+  </si>
+  <si>
+    <t>Alllen, William Francus</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59513396</t>
+  </si>
+  <si>
+    <t>Greyssing, Joseph</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/66807042</t>
+  </si>
+  <si>
+    <t>Grial, I.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/123803197</t>
+  </si>
+  <si>
+    <t>Grimm, Jacob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/31997136</t>
+  </si>
+  <si>
+    <t>Vossius, Isaac</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/54197108</t>
+  </si>
+  <si>
+    <t>Scottus, Andreas</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88770049</t>
+  </si>
+  <si>
+    <t>Chacon, Pedro</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/73950642</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/77146111</t>
+  </si>
+  <si>
+    <t>Nunez, Pedro Juan</t>
+  </si>
+  <si>
+    <t>Oisel, Jacques</t>
+  </si>
+  <si>
+    <t>Thysius, Antoine</t>
+  </si>
+  <si>
+    <t>Carrion, Louis</t>
+  </si>
+  <si>
+    <t>Lambeck, Peter</t>
+  </si>
+  <si>
+    <t>Schoppe, Kaspar</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/56953904</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/62748681</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/46911967</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69284490</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27187785</t>
+  </si>
+  <si>
+    <t>Pichon, Julien</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/74204685</t>
+  </si>
+  <si>
+    <t>Schroder, Johann Caspar</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/278904854</t>
+  </si>
+  <si>
+    <t>Gros, Etienne</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/14770702</t>
+  </si>
+  <si>
+    <t>Grosse, Emil</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/32759325</t>
+  </si>
+  <si>
+    <t>Grosse, Georg Friedrich Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/280925943</t>
+  </si>
+  <si>
+    <t>Grosso, Stephano</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/8156563441723241590</t>
+  </si>
+  <si>
+    <t>Pingre, Alexandre Guy</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29571614</t>
+  </si>
+  <si>
+    <t>Gruber, Johann Sigmund</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7815009</t>
+  </si>
+  <si>
+    <t>Gruber, Johannes von</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57378114</t>
+  </si>
+  <si>
+    <t>Grysar, C.J.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/208894442</t>
+  </si>
+  <si>
+    <t>Guascus, Franciscus Eugenius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/27055326</t>
+  </si>
+  <si>
+    <t>Guenther, Ottom.</t>
   </si>
 </sst>
 </file>
@@ -3259,10 +3592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E487"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="A488" sqref="A488"/>
+    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7142,7 +7475,7 @@
     </row>
     <row r="486" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>955</v>
@@ -7150,7 +7483,452 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>984</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>993</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>994</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>996</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>998</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -7170,8 +7948,12 @@
     <hyperlink ref="B329" r:id="rId10" xr:uid="{0E4B29E6-1623-492B-96BC-F6F5DF9FA360}"/>
     <hyperlink ref="B400" r:id="rId11" xr:uid="{F36AD149-7064-4B82-958D-C7F0FF31E1D6}"/>
     <hyperlink ref="B476" r:id="rId12" xr:uid="{41734D77-2266-494E-94BD-46704C941CFA}"/>
+    <hyperlink ref="B506" r:id="rId13" xr:uid="{8ED047DF-773E-488E-AF5D-6DAF6CA7D541}"/>
+    <hyperlink ref="B514" r:id="rId14" xr:uid="{F1C5C5FA-8D1B-4AA1-8C89-31801DAC331D}"/>
+    <hyperlink ref="B516" r:id="rId15" xr:uid="{A2DBE9D4-4800-4E06-981E-CDD4339C40C2}"/>
+    <hyperlink ref="B517" r:id="rId16" xr:uid="{6C195390-E6D2-4FC3-9F50-5D2E3E0C6D6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="708" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F5EBBC09-E544-4FD3-BEE6-F7FF3EEA9274}"/>
+  <xr:revisionPtr revIDLastSave="723" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B334E700-77C2-4C6A-B62A-1E46A5BC5D99}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1084">
   <si>
     <t>Name</t>
   </si>
@@ -3227,6 +3227,51 @@
   </si>
   <si>
     <t>Guenther, Ottom.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/264441899</t>
+  </si>
+  <si>
+    <t>Guyau, Jean-Marie</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/2487926</t>
+  </si>
+  <si>
+    <t>Hubner, Aug.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/303775117</t>
+  </si>
+  <si>
+    <t>Hulsemann, Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/62316260</t>
+  </si>
+  <si>
+    <t>Habersack, Ferdinand</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20757918</t>
+  </si>
+  <si>
+    <t>Haenel, Gustav Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42572225</t>
+  </si>
+  <si>
+    <t>Haacke, Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/192006379</t>
+  </si>
+  <si>
+    <t>Hamilton, James</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/16315989</t>
   </si>
 </sst>
 </file>
@@ -3592,10 +3637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E543"/>
+  <dimension ref="A1:E550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543"/>
+    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
+      <selection activeCell="A551" sqref="A551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7926,9 +7971,68 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1068</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="723" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B334E700-77C2-4C6A-B62A-1E46A5BC5D99}"/>
+  <xr:revisionPtr revIDLastSave="802" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9B6D7ABE-A41B-4082-A08E-BE49E25BC4BE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1152">
   <si>
     <t>Name</t>
   </si>
@@ -3272,6 +3272,210 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/16315989</t>
+  </si>
+  <si>
+    <t>Hartwig, G.H.Th.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/309672285</t>
+  </si>
+  <si>
+    <t>Hare, Francis</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/46771136</t>
+  </si>
+  <si>
+    <t>Harkness, Albert</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29157788</t>
+  </si>
+  <si>
+    <t>Harrington, C.S.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/24237376</t>
+  </si>
+  <si>
+    <t>Hartel, Wilhelm August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17395529</t>
+  </si>
+  <si>
+    <t>Harwen, Fr. Ernst.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/69780936</t>
+  </si>
+  <si>
+    <t>Hasper, L.W.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/52828105</t>
+  </si>
+  <si>
+    <t>Hauff, Christian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/266148996005559752235</t>
+  </si>
+  <si>
+    <t>Hauptmann, J.G.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17659883</t>
+  </si>
+  <si>
+    <t>Hauris, Benno Caspar</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/255131282</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/15627361</t>
+  </si>
+  <si>
+    <t>Klettenberg und Wildeck, Karl Heinrich von</t>
+  </si>
+  <si>
+    <t>Haus, Phil. Lud.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/102321038</t>
+  </si>
+  <si>
+    <t>Hauthal, Ferdinand</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20033428</t>
+  </si>
+  <si>
+    <t>Haverkamp, Siwart</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/39399735</t>
+  </si>
+  <si>
+    <t>Douza, Franc. Jan. F.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/314883118</t>
+  </si>
+  <si>
+    <t>Hawkey, J.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/309900331</t>
+  </si>
+  <si>
+    <t>Hayward, T.B.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/68857562</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29543710</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/790114</t>
+  </si>
+  <si>
+    <t>Tzschucke, Karl Heinrich</t>
+  </si>
+  <si>
+    <t>Heber, R.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/5314321</t>
+  </si>
+  <si>
+    <t>Heeren, A.H.L.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/71547594</t>
+  </si>
+  <si>
+    <t>Frotscher, Karl Heinrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/44406901</t>
+  </si>
+  <si>
+    <t>Heindorf, Ludwig Friedrich</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/20437272</t>
+  </si>
+  <si>
+    <t>Doderlein, Lud.</t>
+  </si>
+  <si>
+    <t>Heine, Heinrich Otto</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/72151123</t>
+  </si>
+  <si>
+    <t>Hearne, Thomas</t>
+  </si>
+  <si>
+    <t>Heinrich Keil</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/2604826</t>
+  </si>
+  <si>
+    <t>Hagen, Hermann</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/12417688</t>
+  </si>
+  <si>
+    <t>Heinrich, Karl Berthold</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/25429250</t>
+  </si>
+  <si>
+    <t>Schopen, Ludwig</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/3234664</t>
+  </si>
+  <si>
+    <t>Heitland, William Emerton</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/5784272</t>
+  </si>
+  <si>
+    <t>Held, J.C.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/8187843</t>
+  </si>
+  <si>
+    <t>Held, Julius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/1163383</t>
+  </si>
+  <si>
+    <t>Henke, Heinrich Philipp Conrad</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/57343387</t>
+  </si>
+  <si>
+    <t>Hennen, Heinrich Christian</t>
+  </si>
+  <si>
+    <t>Henrichsen, R.J.F.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/722155284807587060865</t>
   </si>
 </sst>
 </file>
@@ -3637,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E550"/>
+  <dimension ref="A1:E585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="A551" sqref="A551"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="A586" sqref="A586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8033,6 +8237,286 @@
       </c>
       <c r="B550" s="3" t="s">
         <v>1083</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A579" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
@@ -8056,8 +8540,9 @@
     <hyperlink ref="B514" r:id="rId14" xr:uid="{F1C5C5FA-8D1B-4AA1-8C89-31801DAC331D}"/>
     <hyperlink ref="B516" r:id="rId15" xr:uid="{A2DBE9D4-4800-4E06-981E-CDD4339C40C2}"/>
     <hyperlink ref="B517" r:id="rId16" xr:uid="{6C195390-E6D2-4FC3-9F50-5D2E3E0C6D6F}"/>
+    <hyperlink ref="B579" r:id="rId17" xr:uid="{4EF47399-6997-4749-A0AE-023B5CF1E639}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
 </worksheet>
 </file>
--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="802" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9B6D7ABE-A41B-4082-A08E-BE49E25BC4BE}"/>
+  <xr:revisionPtr revIDLastSave="831" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9FB6BEEC-FB0F-47D6-B31D-5C0AC49B0D36}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1172">
   <si>
     <t>Name</t>
   </si>
@@ -3476,13 +3476,73 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/722155284807587060865</t>
+  </si>
+  <si>
+    <t>Heusinger, J.F.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/50278454</t>
+  </si>
+  <si>
+    <t>Henzen, Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/42632633</t>
+  </si>
+  <si>
+    <t>Ceccarelli, Pietro</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/29011514</t>
+  </si>
+  <si>
+    <t>Ceccarelli, Stefano</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/89110853</t>
+  </si>
+  <si>
+    <t>Heraeus, Karl Jesaias</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/8147016</t>
+  </si>
+  <si>
+    <t>Herbst, Geo. Aug.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/309684203</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/9977025</t>
+  </si>
+  <si>
+    <t>Hermann, Gottfried</t>
+  </si>
+  <si>
+    <t>Hermolaus, Albritius</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/88971056</t>
+  </si>
+  <si>
+    <t>Hermstadt, J. Adf.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/10188004</t>
+  </si>
+  <si>
+    <t>Herzog, Johann Christian</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59942174</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3522,6 +3582,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3544,7 +3610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3558,6 +3624,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3841,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E585"/>
+  <dimension ref="A1:E595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="A586" sqref="A586"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="A596" sqref="A596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8517,6 +8586,86 @@
       </c>
       <c r="B585" s="3" t="s">
         <v>1151</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1171</v>
       </c>
     </row>
   </sheetData>

--- a/authorities_to_be_added.xlsx
+++ b/authorities_to_be_added.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="831" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9FB6BEEC-FB0F-47D6-B31D-5C0AC49B0D36}"/>
+  <xr:revisionPtr revIDLastSave="862" documentId="5_{AE778009-62E1-45E1-805C-3F3CA5DB8896}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2CBE9634-5BD3-44E2-B785-39BFD125977C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1196">
   <si>
     <t>Name</t>
   </si>
@@ -3536,6 +3536,78 @@
   </si>
   <si>
     <t>http://viaf.org/viaf/59942174</t>
+  </si>
+  <si>
+    <t>Hertel, Friedrich Gottfried Wilhelm</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/17577730</t>
+  </si>
+  <si>
+    <t>Hertzberg, Wilhelm Adolf Boguslaw</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/72153653</t>
+  </si>
+  <si>
+    <t>Herzog, Christian Gottlob</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/77076028</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/7726991</t>
+  </si>
+  <si>
+    <t>Hess, Philipp Karl</t>
+  </si>
+  <si>
+    <t>Petau, Denis</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/51717250</t>
+  </si>
+  <si>
+    <t>Theodorus, Gazes</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/100189101</t>
+  </si>
+  <si>
+    <t>Heumann, Christoph August</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/79080705</t>
+  </si>
+  <si>
+    <t>Heusinger, Johann Michael</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/59427359</t>
+  </si>
+  <si>
+    <t>Heusinger, Konrad</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/35217163</t>
+  </si>
+  <si>
+    <t>Heyden, Joh. Dan.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/61903539</t>
+  </si>
+  <si>
+    <t>Heyes, Theodor</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/100382753</t>
+  </si>
+  <si>
+    <t>Heynatz, I. Fr.</t>
+  </si>
+  <si>
+    <t>http://viaf.org/viaf/72154517</t>
   </si>
 </sst>
 </file>
@@ -3910,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E595"/>
+  <dimension ref="A1:E607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="A596" sqref="A596"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="A608" sqref="A608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8666,6 +8738,102 @@
       </c>
       <c r="B595" s="3" t="s">
         <v>1171</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1195</v>
       </c>
     </row>
   </sheetData>
